--- a/IITG/structured/alibaba.xlsx
+++ b/IITG/structured/alibaba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>AS NUMBER</t>
   </si>
@@ -44,15 +44,6 @@
   </si>
   <si>
     <t>Bharti Airtel Limited</t>
-  </si>
-  <si>
-    <t>AS0</t>
-  </si>
-  <si>
-    <t>182.79.201.106</t>
-  </si>
-  <si>
-    <t>New Delhi/India</t>
   </si>
   <si>
     <t>AS174</t>
@@ -498,7 +489,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -560,14 +551,12 @@
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -575,17 +564,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -593,17 +582,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -611,17 +600,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -629,17 +618,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -647,17 +636,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -665,17 +654,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -683,55 +672,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
